--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2365.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2365.xlsx
@@ -354,7 +354,7 @@
         <v>1.694021660668165</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.933825245891238</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2365.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2365.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8530118362289335</v>
+        <v>1.011191964149475</v>
       </c>
       <c r="B1">
-        <v>1.694021660668165</v>
+        <v>2.127410411834717</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>5.880775451660156</v>
       </c>
       <c r="D1">
-        <v>1.933825245891238</v>
+        <v>1.105409979820251</v>
       </c>
       <c r="E1">
-        <v>1.204907915086753</v>
+        <v>1.156762361526489</v>
       </c>
     </row>
   </sheetData>
